--- a/natmiOut/OldD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Lamb1-Itga6.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H2">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I2">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J2">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N2">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O2">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P2">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q2">
-        <v>901.7902896008219</v>
+        <v>4063.544912391107</v>
       </c>
       <c r="R2">
-        <v>901.7902896008219</v>
+        <v>36571.90421151996</v>
       </c>
       <c r="S2">
-        <v>0.06888960044187847</v>
+        <v>0.1981179906975175</v>
       </c>
       <c r="T2">
-        <v>0.06888960044187847</v>
+        <v>0.1981179906975175</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H3">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I3">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J3">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N3">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O3">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P3">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q3">
-        <v>9.147900529592452</v>
+        <v>32.45991521169356</v>
       </c>
       <c r="R3">
-        <v>9.147900529592452</v>
+        <v>292.139236905242</v>
       </c>
       <c r="S3">
-        <v>0.0006988267889252042</v>
+        <v>0.001582582035784216</v>
       </c>
       <c r="T3">
-        <v>0.0006988267889252042</v>
+        <v>0.001582582035784215</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.8468666559765</v>
+        <v>39.27015933333333</v>
       </c>
       <c r="H4">
-        <v>11.8468666559765</v>
+        <v>117.810478</v>
       </c>
       <c r="I4">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="J4">
-        <v>0.08118092575373249</v>
+        <v>0.2257020976862494</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N4">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P4">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q4">
-        <v>151.7500832220537</v>
+        <v>533.3102968840344</v>
       </c>
       <c r="R4">
-        <v>151.7500832220537</v>
+        <v>4799.792671956309</v>
       </c>
       <c r="S4">
-        <v>0.01159249852292882</v>
+        <v>0.02600152495294779</v>
       </c>
       <c r="T4">
-        <v>0.01159249852292882</v>
+        <v>0.02600152495294778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H5">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I5">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J5">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N5">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O5">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P5">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q5">
-        <v>9048.510410800553</v>
+        <v>12345.02184441155</v>
       </c>
       <c r="R5">
-        <v>9048.510410800553</v>
+        <v>111105.1965997039</v>
       </c>
       <c r="S5">
-        <v>0.6912341749323483</v>
+        <v>0.6018811101296812</v>
       </c>
       <c r="T5">
-        <v>0.6912341749323483</v>
+        <v>0.601881110129681</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H6">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I6">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J6">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N6">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O6">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P6">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q6">
-        <v>91.78949267198865</v>
+        <v>98.61300194669425</v>
       </c>
       <c r="R6">
-        <v>91.78949267198865</v>
+        <v>887.5170175202481</v>
       </c>
       <c r="S6">
-        <v>0.007011986653499076</v>
+        <v>0.004807873475879292</v>
       </c>
       <c r="T6">
-        <v>0.007011986653499076</v>
+        <v>0.004807873475879291</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>118.870759097905</v>
+        <v>119.3024773333333</v>
       </c>
       <c r="H7">
-        <v>118.870759097905</v>
+        <v>357.907432</v>
       </c>
       <c r="I7">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="J7">
-        <v>0.8145646058866207</v>
+        <v>0.6856814398113102</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N7">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P7">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q7">
-        <v>1522.651356650127</v>
+        <v>1620.193059711738</v>
       </c>
       <c r="R7">
-        <v>1522.651356650127</v>
+        <v>14581.73753740564</v>
       </c>
       <c r="S7">
-        <v>0.1163184443007733</v>
+        <v>0.07899245620574993</v>
       </c>
       <c r="T7">
-        <v>0.1163184443007733</v>
+        <v>0.07899245620574992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H8">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I8">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J8">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>76.12057397015499</v>
+        <v>103.4766596666667</v>
       </c>
       <c r="N8">
-        <v>76.12057397015499</v>
+        <v>310.429979</v>
       </c>
       <c r="O8">
-        <v>0.8485934325368432</v>
+        <v>0.877785331764719</v>
       </c>
       <c r="P8">
-        <v>0.8485934325368432</v>
+        <v>0.8777853317647188</v>
       </c>
       <c r="Q8">
-        <v>1158.100456989469</v>
+        <v>1595.452497107328</v>
       </c>
       <c r="R8">
-        <v>1158.100456989469</v>
+        <v>14359.07247396595</v>
       </c>
       <c r="S8">
-        <v>0.08846965716261648</v>
+        <v>0.07778623093752036</v>
       </c>
       <c r="T8">
-        <v>0.08846965716261648</v>
+        <v>0.07778623093752035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H9">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I9">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J9">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.772178905633037</v>
+        <v>0.8265796666666668</v>
       </c>
       <c r="N9">
-        <v>0.772178905633037</v>
+        <v>2.479739</v>
       </c>
       <c r="O9">
-        <v>0.008608263362814311</v>
+        <v>0.007011818020336602</v>
       </c>
       <c r="P9">
-        <v>0.008608263362814311</v>
+        <v>0.0070118180203366</v>
       </c>
       <c r="Q9">
-        <v>11.74795061111685</v>
+        <v>12.74459957916767</v>
       </c>
       <c r="R9">
-        <v>11.74795061111685</v>
+        <v>114.701396212509</v>
       </c>
       <c r="S9">
-        <v>0.0008974499203900323</v>
+        <v>0.0006213625086730939</v>
       </c>
       <c r="T9">
-        <v>0.0008974499203900323</v>
+        <v>0.0006213625086730938</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.2140268601171</v>
+        <v>15.418477</v>
       </c>
       <c r="H10">
-        <v>15.2140268601171</v>
+        <v>46.255431</v>
       </c>
       <c r="I10">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="J10">
-        <v>0.1042544683596469</v>
+        <v>0.08861646250244033</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>12.80930119573</v>
+        <v>13.58054833333333</v>
       </c>
       <c r="N10">
-        <v>12.80930119573</v>
+        <v>40.741645</v>
       </c>
       <c r="O10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="P10">
-        <v>0.1427983041003425</v>
+        <v>0.1152028502149446</v>
       </c>
       <c r="Q10">
-        <v>194.8810524511663</v>
+        <v>209.3913721248883</v>
       </c>
       <c r="R10">
-        <v>194.8810524511663</v>
+        <v>1884.522349123995</v>
       </c>
       <c r="S10">
-        <v>0.0148873612766404</v>
+        <v>0.01020886905624689</v>
       </c>
       <c r="T10">
-        <v>0.0148873612766404</v>
+        <v>0.01020886905624689</v>
       </c>
     </row>
   </sheetData>
